--- a/reports/2026-02-13.xlsx
+++ b/reports/2026-02-13.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-02-13 05:36 UTC</t>
+          <t>2026-02-13 17:01 UTC</t>
         </is>
       </c>
     </row>
@@ -666,43 +666,43 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BERAUSDT</t>
+          <t>HUSDT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Berachain</t>
+          <t>Humanity Protocol</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$0.66</t>
+          <t>$0.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$140.76M</t>
+          <t>$544.83M</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$7.78M</t>
+          <t>$8.03M</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>67.39</v>
+        <v>78.83</v>
       </c>
       <c r="H2" t="n">
         <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>36.97</v>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K2" t="n">
-        <v>61.93</v>
+        <v>97.93000000000001</v>
       </c>
       <c r="L2" t="inlineStr"/>
     </row>
@@ -712,43 +712,43 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0GUSDT</t>
+          <t>BERAUSDT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0G</t>
+          <t>Berachain</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$0.59</t>
+          <t>$0.68</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$126.42M</t>
+          <t>$145.13M</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$5.36M</t>
+          <t>$3.34M</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>55</v>
+        <v>68.73999999999999</v>
       </c>
       <c r="H3" t="n">
         <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.41</v>
       </c>
       <c r="J3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>100</v>
+        <v>61.93</v>
       </c>
       <c r="L3" t="inlineStr"/>
     </row>
@@ -768,27 +768,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$0.71</t>
+          <t>$0.74</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$1.76B</t>
+          <t>$1.82B</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$10.11M</t>
+          <t>$7.34M</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>52.45</v>
+        <v>59.46</v>
       </c>
       <c r="H4" t="n">
         <v>91.51000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>28.04</v>
       </c>
       <c r="J4" t="n">
         <v>100</v>
@@ -804,43 +804,43 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HUSDT</t>
+          <t>0GUSDT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Humanity Protocol</t>
+          <t>0G</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$0.17</t>
+          <t>$0.63</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$418.37M</t>
+          <t>$134.85M</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$3.63M</t>
+          <t>$1.91M</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>56.47</v>
       </c>
       <c r="H5" t="n">
         <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>5.86</v>
       </c>
       <c r="J5" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L5" t="inlineStr"/>
     </row>
@@ -850,37 +850,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>IPUSDT</t>
+          <t>COMPUSDT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Story</t>
+          <t>Compound</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$1.11</t>
+          <t>$18.61</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$388.92M</t>
+          <t>$185.51M</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$2.32M</t>
+          <t>$2.29M</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>50</v>
+        <v>55.86</v>
       </c>
       <c r="H6" t="n">
         <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>23.43</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -896,43 +896,43 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MYXUSDT</t>
+          <t>CAKEUSDT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MYX Finance</t>
+          <t>PancakeSwap</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$3.09</t>
+          <t>$1.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$778.60M</t>
+          <t>$430.62M</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$1.28M</t>
+          <t>$1.85M</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>50</v>
+        <v>53.32</v>
       </c>
       <c r="H7" t="n">
         <v>100</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>26.21</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="K7" t="n">
-        <v>100</v>
+        <v>81.13</v>
       </c>
       <c r="L7" t="inlineStr"/>
     </row>
@@ -957,28 +957,28 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$125.34M</t>
+          <t>$145.73M</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$1.12M</t>
+          <t>$2.16M</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>50</v>
+        <v>51.8</v>
       </c>
       <c r="H8" t="n">
         <v>100</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>9.15</v>
       </c>
       <c r="K8" t="n">
-        <v>100</v>
+        <v>94.22</v>
       </c>
       <c r="L8" t="inlineStr"/>
     </row>
@@ -988,43 +988,43 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>XPLUSDT</t>
+          <t>FILUSDT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Plasma</t>
+          <t>Filecoin</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$0.09</t>
+          <t>$0.95</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$157.74M</t>
+          <t>$714.47M</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$1.37M</t>
+          <t>$1.86M</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>39.56</v>
+        <v>51.69</v>
       </c>
       <c r="H9" t="n">
         <v>100</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.17</v>
       </c>
       <c r="J9" t="n">
-        <v>20</v>
+        <v>6.79</v>
       </c>
       <c r="K9" t="n">
-        <v>22.81</v>
+        <v>74.75</v>
       </c>
       <c r="L9" t="inlineStr"/>
     </row>
@@ -1034,43 +1034,43 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>POLUSDT</t>
+          <t>BSVUSDT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Polygon (prev. MATIC)</t>
+          <t>Bitcoin SV</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>$0.10</t>
+          <t>$16.89</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>$1.02B</t>
+          <t>$339.23M</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$1.58M</t>
+          <t>$1.64M</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>38.1</v>
+        <v>48.67</v>
       </c>
       <c r="H10" t="n">
-        <v>100</v>
+        <v>56.07</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>27.38</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>40.5</v>
+        <v>100</v>
       </c>
       <c r="L10" t="inlineStr"/>
     </row>
@@ -1080,43 +1080,43 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AAVEUSDT</t>
+          <t>PEPEUSDT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Aave</t>
+          <t>Pepe</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>$110.75</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>$1.69B</t>
+          <t>$1.57B</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$12.42M</t>
+          <t>$8.54M</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>35</v>
+        <v>45.26</v>
       </c>
       <c r="H11" t="n">
-        <v>100</v>
+        <v>96.38</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>19.71</v>
       </c>
       <c r="J11" t="n">
-        <v>20</v>
+        <v>17.11</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>35.69</v>
       </c>
       <c r="L11" t="inlineStr"/>
     </row>
@@ -1223,37 +1223,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BERAUSDT</t>
+          <t>HUSDT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Berachain</t>
+          <t>Humanity Protocol</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$0.66</t>
+          <t>$0.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$140.76M</t>
+          <t>$544.83M</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$7.78M</t>
+          <t>$8.03M</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>62.87</v>
+        <v>74.06</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25.9</v>
       </c>
       <c r="I2" t="n">
-        <v>92.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="J2" t="n">
         <v>100</v>
@@ -1269,37 +1269,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ASTERUSDT</t>
+          <t>BERAUSDT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Aster</t>
+          <t>Berachain</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$0.71</t>
+          <t>$0.68</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$1.76B</t>
+          <t>$145.13M</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$10.11M</t>
+          <t>$3.34M</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>54.41</v>
+        <v>62.87</v>
       </c>
       <c r="H3" t="n">
-        <v>55.45</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="J3" t="n">
         <v>100</v>
@@ -1315,37 +1315,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZROUSDT</t>
+          <t>ASTERUSDT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LayerZero</t>
+          <t>Aster</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$1.92</t>
+          <t>$0.74</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$569.96M</t>
+          <t>$1.82B</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$6.88M</t>
+          <t>$7.34M</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>50.88</v>
+        <v>54.41</v>
       </c>
       <c r="H4" t="n">
+        <v>55.45</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>52.92</v>
       </c>
       <c r="J4" t="n">
         <v>100</v>
@@ -1361,40 +1361,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0GUSDT</t>
+          <t>ZROUSDT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0G</t>
+          <t>LayerZero</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$0.59</t>
+          <t>$1.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$126.42M</t>
+          <t>$590.49M</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$5.36M</t>
+          <t>$4.17M</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>45</v>
+        <v>50.88</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>100</v>
+        <v>52.92</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
         <v>100</v>
@@ -1407,37 +1407,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HUSDT</t>
+          <t>STABLEUSDT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Humanity Protocol</t>
+          <t>Stable</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$0.17</t>
+          <t>$0.02</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$418.37M</t>
+          <t>$438.25M</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$3.63M</t>
+          <t>$1.88M</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>44.06</v>
+        <v>49.32</v>
       </c>
       <c r="H6" t="n">
-        <v>25.9</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>47.73</v>
       </c>
       <c r="J6" t="n">
         <v>100</v>
@@ -1453,40 +1453,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PIPPINUSDT</t>
+          <t>0GUSDT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>pippin</t>
+          <t>0G</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$0.49</t>
+          <t>$0.63</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$485.67M</t>
+          <t>$134.85M</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$5.37M</t>
+          <t>$1.91M</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
+        <v>100</v>
+      </c>
+      <c r="J7" t="n">
         <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
       </c>
       <c r="K7" t="n">
         <v>100</v>
@@ -1499,31 +1499,31 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DEEPUSDT</t>
+          <t>BSVUSDT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DeepBook Protocol</t>
+          <t>Bitcoin SV</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$0.03</t>
+          <t>$16.89</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$125.34M</t>
+          <t>$339.23M</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$1.12M</t>
+          <t>$1.64M</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>33.43</v>
+        <v>45</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>22.89</v>
+        <v>100</v>
       </c>
       <c r="L8" t="inlineStr"/>
     </row>
@@ -1545,43 +1545,43 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>STABLEUSDT</t>
+          <t>DEEPUSDT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>DeepBook Protocol</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$0.02</t>
+          <t>$0.03</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$409.77M</t>
+          <t>$145.73M</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$1.20M</t>
+          <t>$2.16M</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>32.57</v>
+        <v>36.87</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
+        <v>100</v>
+      </c>
+      <c r="J9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
       <c r="K9" t="n">
-        <v>83.8</v>
+        <v>45.77</v>
       </c>
       <c r="L9" t="inlineStr"/>
     </row>
@@ -1591,31 +1591,31 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IPUSDT</t>
+          <t>FILUSDT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Story</t>
+          <t>Filecoin</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>$1.11</t>
+          <t>$0.95</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>$388.92M</t>
+          <t>$714.47M</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$2.32M</t>
+          <t>$1.86M</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>30</v>
+        <v>35.09</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>33.94</v>
       </c>
       <c r="L10" t="inlineStr"/>
     </row>
@@ -1637,43 +1637,43 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MYXUSDT</t>
+          <t>PIPPINUSDT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MYX Finance</t>
+          <t>pippin</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>$3.09</t>
+          <t>$0.62</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>$778.60M</t>
+          <t>$624.64M</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$1.28M</t>
+          <t>$3.45M</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L11" t="inlineStr"/>
     </row>
@@ -1780,43 +1780,43 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BERAUSDT</t>
+          <t>HUSDT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Berachain</t>
+          <t>Humanity Protocol</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$0.66</t>
+          <t>$0.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$140.76M</t>
+          <t>$544.83M</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$7.78M</t>
+          <t>$8.03M</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>57.5</v>
+        <v>65</v>
       </c>
       <c r="H2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>20</v>
       </c>
       <c r="J2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L2" t="inlineStr"/>
     </row>
@@ -1826,43 +1826,43 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZROUSDT</t>
+          <t>PIPPINUSDT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LayerZero</t>
+          <t>pippin</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$1.92</t>
+          <t>$0.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$569.96M</t>
+          <t>$624.64M</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$6.88M</t>
+          <t>$3.45M</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>55.5</v>
+        <v>63.05</v>
       </c>
       <c r="H3" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
         <v>20</v>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>15.27</v>
       </c>
       <c r="L3" t="inlineStr"/>
     </row>
@@ -1872,43 +1872,43 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PIPPINUSDT</t>
+          <t>STABLEUSDT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>pippin</t>
+          <t>Stable</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$0.49</t>
+          <t>$0.02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$485.67M</t>
+          <t>$438.25M</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$5.37M</t>
+          <t>$1.88M</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>50.55</v>
+        <v>61.55</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I4" t="n">
         <v>20</v>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>15.27</v>
+        <v>67.73</v>
       </c>
       <c r="L4" t="inlineStr"/>
     </row>
@@ -1918,31 +1918,31 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ASTERUSDT</t>
+          <t>BERAUSDT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Aster</t>
+          <t>Berachain</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$0.71</t>
+          <t>$0.68</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$1.76B</t>
+          <t>$145.13M</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$10.11M</t>
+          <t>$3.34M</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H5" t="n">
         <v>80</v>
@@ -1954,7 +1954,7 @@
         <v>60</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L5" t="inlineStr"/>
     </row>
@@ -1964,43 +1964,43 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HUSDT</t>
+          <t>ZROUSDT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Humanity Protocol</t>
+          <t>LayerZero</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$0.17</t>
+          <t>$1.98</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$418.37M</t>
+          <t>$590.49M</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$3.63M</t>
+          <t>$4.17M</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="H6" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I6" t="n">
         <v>20</v>
       </c>
       <c r="J6" t="n">
+        <v>44</v>
+      </c>
+      <c r="K6" t="n">
         <v>80</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
       </c>
       <c r="L6" t="inlineStr"/>
     </row>
@@ -2010,40 +2010,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>STABLEUSDT</t>
+          <t>ASTERUSDT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Aster</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$0.02</t>
+          <t>$0.74</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$409.77M</t>
+          <t>$1.82B</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$1.20M</t>
+          <t>$7.34M</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>35.5</v>
+        <v>46</v>
       </c>
       <c r="H7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I7" t="n">
         <v>20</v>
       </c>
       <c r="J7" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -2066,21 +2066,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$0.59</t>
+          <t>$0.63</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$126.42M</t>
+          <t>$134.85M</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$5.36M</t>
+          <t>$1.91M</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>28.75</v>
+        <v>33</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>100</v>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="K8" t="n">
         <v>100</v>
@@ -2106,31 +2106,31 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DEEPUSDT</t>
+          <t>BSVUSDT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DeepBook Protocol</t>
+          <t>Bitcoin SV</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$0.03</t>
+          <t>$16.89</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$125.34M</t>
+          <t>$339.23M</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$1.12M</t>
+          <t>$1.64M</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>18.75</v>
+        <v>21.75</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -2139,7 +2139,7 @@
         <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="K9" t="n">
         <v>100</v>
@@ -2156,31 +2156,31 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MYXUSDT</t>
+          <t>DEEPUSDT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MYX Finance</t>
+          <t>DeepBook Protocol</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>$3.09</t>
+          <t>$0.03</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>$778.60M</t>
+          <t>$145.73M</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$1.28M</t>
+          <t>$2.16M</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>17.5</v>
+        <v>18.39</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -2189,7 +2189,7 @@
         <v>10</v>
       </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>57.15</v>
       </c>
       <c r="K10" t="n">
         <v>100</v>
@@ -2206,43 +2206,43 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RIVERUSDT</t>
+          <t>XPLUSDT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>River</t>
+          <t>Plasma</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>$20.19</t>
+          <t>$0.10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>$397.23M</t>
+          <t>$179.42M</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$4.56M</t>
+          <t>$1.16M</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>17.17</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J11" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>54.21</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
